--- a/StructureDefinition-be-practitionerrole.xlsx
+++ b/StructureDefinition-be-practitionerrole.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$72</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2523" uniqueCount="317">
   <si>
     <t>Path</t>
   </si>
@@ -442,7 +442,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner)
 </t>
   </si>
   <si>
@@ -458,7 +458,7 @@
     <t>PractitionerRole.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization)
 </t>
   </si>
   <si>
@@ -481,28 +481,253 @@
     <t>Roles which this practitioner may perform</t>
   </si>
   <si>
+    <t>Roles which this practitioner is authorized to perform for the organization.
+For compatibility reasons, CD-HCPARTY is described here to express the role of the practitioner. Other coding systems remain allowed. Towards the future, the use of SNOMED-CT codes is also RECOMMENDED here. 
+In the future, other ways to codfy might however be also proposed.
+When available, a provider SHOULD include it. When given, a consumer SHALL record this in its consuming system.</t>
+  </si>
+  <si>
+    <t>A person may have more than one role.</t>
+  </si>
+  <si>
+    <t>Need to know what authority the practitioner has - what can they do?</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>The role a person plays representing an organization.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/practitioner-role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:coding.system}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>PRD-1 / STF-18  / PRA-3  / PRT-4  / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>CD-HCPARTY</t>
+  </si>
+  <si>
     <t>Roles which this practitioner is authorized to perform for the organization.</t>
   </si>
   <si>
-    <t>A person may have more than one role.</t>
-  </si>
-  <si>
-    <t>Need to know what authority the practitioner has - what can they do?</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The role a person plays representing an organization.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/practitioner-role</t>
-  </si>
-  <si>
-    <t>PRD-1 / STF-18  / PRA-3  / PRT-4  / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17</t>
-  </si>
-  <si>
-    <t>.code</t>
+    <t>PractitionerRole.code.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.coding.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.coding.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/CodeSystem/cd-hcparty</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>SNOMED-CT</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
   </si>
   <si>
     <t>PractitionerRole.specialty</t>
@@ -527,6 +752,39 @@
   </si>
   <si>
     <t>./Specialty</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.coding</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.coding.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.coding.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.coding.system</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.coding.version</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.coding.code</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.coding.display</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.coding.userSelected</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty.text</t>
   </si>
   <si>
     <t>PractitionerRole.location</t>
@@ -611,25 +869,7 @@
     <t>PractitionerRole.availableTime.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>PractitionerRole.availableTime.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>PractitionerRole.availableTime.modifierExtension</t>
@@ -910,7 +1150,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM36"/>
+  <dimension ref="A1:AM72"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -920,7 +1160,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="45.65234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.52734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -945,8 +1185,8 @@
     <col min="24" max="24" width="48.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="44.42578125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.921875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="45.65234375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2705,16 +2945,14 @@
         <v>40</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="AB16" s="2"/>
       <c r="AC16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>145</v>
@@ -2732,10 +2970,10 @@
         <v>62</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>133</v>
@@ -2744,11 +2982,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>40</v>
       </c>
@@ -2760,7 +3000,7 @@
         <v>42</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>40</v>
@@ -2772,13 +3012,17 @@
         <v>146</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>40</v>
       </c>
@@ -2802,13 +3046,13 @@
         <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>40</v>
@@ -2826,7 +3070,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -2841,13 +3085,13 @@
         <v>62</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -2855,7 +3099,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2866,7 +3110,7 @@
         <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>40</v>
@@ -2875,16 +3119,16 @@
         <v>40</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2935,40 +3179,40 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="AL18" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>170</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -2987,15 +3231,17 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3032,19 +3278,19 @@
         <v>40</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3056,13 +3302,13 @@
         <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3073,7 +3319,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3096,17 +3342,19 @@
         <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="N20" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3155,7 +3403,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3170,10 +3418,10 @@
         <v>62</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3184,7 +3432,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3195,7 +3443,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3207,17 +3455,15 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3266,25 +3512,25 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3295,18 +3541,18 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
@@ -3318,15 +3564,17 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>190</v>
+        <v>97</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3363,37 +3611,37 @@
         <v>40</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3404,18 +3652,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>40</v>
@@ -3424,21 +3672,23 @@
         <v>40</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3447,7 +3697,7 @@
         <v>40</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>40</v>
@@ -3486,25 +3736,25 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3515,43 +3765,41 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3599,25 +3847,25 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -3628,7 +3876,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3636,10 +3884,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>40</v>
@@ -3648,19 +3896,21 @@
         <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="N25" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
       </c>
@@ -3684,13 +3934,13 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -3708,13 +3958,13 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>40</v>
@@ -3723,10 +3973,10 @@
         <v>62</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -3737,7 +3987,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3757,19 +4007,21 @@
         <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
       </c>
@@ -3832,10 +4084,10 @@
         <v>62</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -3866,21 +4118,23 @@
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>40</v>
       </c>
@@ -3928,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -3943,10 +4197,10 @@
         <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -3957,7 +4211,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3977,21 +4231,23 @@
         <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>212</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
       </c>
@@ -4039,7 +4295,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4054,10 +4310,10 @@
         <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4066,11 +4322,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>40</v>
       </c>
@@ -4082,25 +4340,29 @@
         <v>42</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>220</v>
+        <v>147</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>40</v>
       </c>
@@ -4124,13 +4386,13 @@
         <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>40</v>
@@ -4148,7 +4410,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>219</v>
+        <v>145</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4163,13 +4425,13 @@
         <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
@@ -4177,7 +4439,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4203,10 +4465,10 @@
         <v>52</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4257,7 +4519,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4275,7 +4537,7 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
@@ -4286,7 +4548,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4315,7 +4577,7 @@
         <v>97</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>99</v>
@@ -4356,19 +4618,19 @@
         <v>40</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4386,7 +4648,7 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -4397,11 +4659,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4414,25 +4676,25 @@
         <v>40</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4481,7 +4743,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4493,13 +4755,13 @@
         <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -4510,7 +4772,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4518,7 +4780,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>50</v>
@@ -4536,10 +4798,10 @@
         <v>52</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>226</v>
+        <v>161</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>227</v>
+        <v>162</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4590,10 +4852,10 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>50</v>
@@ -4602,13 +4864,13 @@
         <v>40</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
@@ -4619,18 +4881,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
@@ -4642,15 +4904,17 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>229</v>
+        <v>97</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -4687,37 +4951,37 @@
         <v>40</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
@@ -4728,7 +4992,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4736,7 +5000,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>50</v>
@@ -4748,19 +5012,23 @@
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
       </c>
@@ -4769,7 +5037,7 @@
         <v>40</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>40</v>
@@ -4808,7 +5076,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -4823,10 +5091,10 @@
         <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
@@ -4837,7 +5105,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4848,7 +5116,7 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
@@ -4857,21 +5125,21 @@
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>235</v>
+        <v>52</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
       </c>
@@ -4919,13 +5187,13 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
@@ -4934,20 +5202,4004 @@
         <v>62</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AB41" s="2"/>
+      <c r="AC41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AL36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM36" t="s" s="2">
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM36">
+  <autoFilter ref="A1:AM72">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4957,7 +9209,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI35">
+  <conditionalFormatting sqref="A2:AI71">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-practitionerrole.xlsx
+++ b/StructureDefinition-be-practitionerrole.xlsx
@@ -3694,10 +3694,10 @@
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>40</v>
@@ -5034,10 +5034,10 @@
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>40</v>

--- a/StructureDefinition-be-practitionerrole.xlsx
+++ b/StructureDefinition-be-practitionerrole.xlsx
@@ -6477,10 +6477,10 @@
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>40</v>
